--- a/Semana6/Semana06_solucion.xlsx
+++ b/Semana6/Semana06_solucion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubsAcademic\ia2022-1b\Semana6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E575C1F-6FBA-4981-AF43-7C914894357C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAAE9A4-A64F-46C3-82D3-FF67D31B5031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9DAC6F73-3587-484E-861A-33DF79E3DDBE}"/>
   </bookViews>
@@ -71,10 +71,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,9 +115,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -200,8 +217,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="4381500"/>
-          <a:ext cx="3810000" cy="2446877"/>
+          <a:off x="1" y="7470588"/>
+          <a:ext cx="3847353" cy="2402054"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -254,6 +271,353 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>351118</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>164353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>366059</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Conector recto 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F965E1E4-786C-8582-FDF3-4417165D6A8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1113118" y="7821706"/>
+          <a:ext cx="14941" cy="575235"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>82176</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>679824</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>7470</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54277DF1-1CA1-3648-5D9D-8D0E1BE84961}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2368176" y="8404412"/>
+          <a:ext cx="597648" cy="7470"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>679824</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>141942</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="CuadroTexto 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF44D1C4-23E6-911C-C396-E10B3C1FA939}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="679824" y="8733118"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>373530</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>104587</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="CuadroTexto 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C75E37A-4D5F-6B10-77A4-7C2004A93869}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1897530" y="7948705"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>52295</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="CuadroTexto 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F0B6E9C-F949-36FA-44A8-C04D3583B51A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2599765" y="8643471"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>283883</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>74705</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="CuadroTexto 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9A39C6B-C6D3-743C-2A5C-CEB7582280EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2569883" y="8479117"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -554,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F36EF7-F42B-4257-9176-FCA6A257D6DC}">
-  <dimension ref="C2:J49"/>
+  <dimension ref="C2:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -763,26 +1127,30 @@
         <f>16 + 8/2</f>
         <v>20</v>
       </c>
-      <c r="I44">
-        <f>3*3/2</f>
-        <v>4.5</v>
+      <c r="I44" s="3">
+        <f>8*8</f>
+        <v>64</v>
       </c>
       <c r="J44">
         <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.35">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="49" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I49" t="s">
         <v>3</v>
       </c>
       <c r="J49" s="1">
         <f>SUM(J42:J48)/SUM(I42:I48)</f>
-        <v>5.9965811965811966</v>
-      </c>
+        <v>8.3636363636363633</v>
+      </c>
+    </row>
+    <row r="54" spans="9:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="M54" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Semana6/Semana06_solucion.xlsx
+++ b/Semana6/Semana06_solucion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubsAcademic\ia2022-1b\Semana6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAAE9A4-A64F-46C3-82D3-FF67D31B5031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DB906A-F8C4-449A-B68B-FF4A87C67A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9DAC6F73-3587-484E-861A-33DF79E3DDBE}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +90,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,11 +123,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -920,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F36EF7-F42B-4257-9176-FCA6A257D6DC}">
   <dimension ref="C2:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1107,16 +1117,16 @@
         <v>5</v>
       </c>
       <c r="H43">
-        <f>8 + 8/2</f>
+        <f>8 + (8/2)</f>
         <v>12</v>
       </c>
       <c r="I43">
-        <f>8*8</f>
-        <v>64</v>
+        <f>16*8</f>
+        <v>128</v>
       </c>
       <c r="J43">
         <f t="shared" ref="J43:J44" si="2">I43*H43</f>
-        <v>768</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="44" spans="7:10" x14ac:dyDescent="0.35">
@@ -1124,7 +1134,7 @@
         <v>8</v>
       </c>
       <c r="H44">
-        <f>16 + 8/2</f>
+        <f>16 + (8/2)</f>
         <v>20</v>
       </c>
       <c r="I44" s="3">
@@ -1137,12 +1147,12 @@
       </c>
     </row>
     <row r="49" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I49" t="s">
+      <c r="I49" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49" s="5">
         <f>SUM(J42:J48)/SUM(I42:I48)</f>
-        <v>8.3636363636363633</v>
+        <v>8.9230769230769234</v>
       </c>
     </row>
     <row r="54" spans="9:13" ht="15.5" x14ac:dyDescent="0.35">
